--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -100,7 +100,7 @@
     <t>_strategy</t>
   </si>
   <si>
-    <t>AverageDirectionalMovement</t>
+    <t>BollingerBands</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>42933</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45104</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2171</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>94.65597862391449</v>
+        <v>97.75231379462318</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -511,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12644.32591502371</v>
+        <v>15211.42539956379</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30904.20811612172</v>
+        <v>37789.56341852081</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.4432591502371</v>
+        <v>52.11425399563788</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-4.064039170952129</v>
+        <v>47.89612934459328</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.028606273728874</v>
+        <v>4.768850898121979</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -551,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65.83085491741512</v>
+        <v>44.21349581760783</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -559,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.06119632319499367</v>
+        <v>0.107859620912916</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -567,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1017881646455998</v>
+        <v>0.1829328292421544</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.04663541039106794</v>
+        <v>0.07807907521321875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -583,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-86.38513610036701</v>
+        <v>-61.07719494754742</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-11.21226360836977</v>
+        <v>-8.058069509785105</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>1107</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -607,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -615,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -623,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>51.92307692307693</v>
+        <v>35.08771929824561</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -631,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>320.0992246694225</v>
+        <v>61.80550813610266</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -639,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-60.17205106489229</v>
+        <v>-22.67569528910156</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -647,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4479174331765146</v>
+        <v>0.3397221127777961</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>496</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -663,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -671,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.241591884097772</v>
+        <v>1.318856797793036</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -679,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.881549195138817</v>
+        <v>0.9263099546116448</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -687,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1539410837196828</v>
+        <v>0.2108660855546474</v>
       </c>
     </row>
     <row r="29" spans="1:2">
